--- a/PCB/PickAndPlace.xlsx
+++ b/PCB/PickAndPlace.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-11-30" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-12-13" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
   <si>
     <t>Designator</t>
   </si>
@@ -64,13 +64,13 @@
     <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
   </si>
   <si>
-    <t>73.279mm</t>
-  </si>
-  <si>
-    <t>43.18mm</t>
-  </si>
-  <si>
-    <t>72.106mm</t>
+    <t>73.152mm</t>
+  </si>
+  <si>
+    <t>37.719mm</t>
+  </si>
+  <si>
+    <t>71.979mm</t>
   </si>
   <si>
     <t>T</t>
@@ -133,9 +133,6 @@
     <t>LED0805-RD_BLUE</t>
   </si>
   <si>
-    <t>73.152mm</t>
-  </si>
-  <si>
     <t>26.924mm</t>
   </si>
   <si>
@@ -193,16 +190,16 @@
     <t>RES-ARRAY-SMD_8P-L3.2-W1.6-P0.80-BL</t>
   </si>
   <si>
-    <t>72.991mm</t>
-  </si>
-  <si>
-    <t>38.036mm</t>
-  </si>
-  <si>
-    <t>73.761mm</t>
-  </si>
-  <si>
-    <t>36.686mm</t>
+    <t>73.406mm</t>
+  </si>
+  <si>
+    <t>42.799mm</t>
+  </si>
+  <si>
+    <t>74.176mm</t>
+  </si>
+  <si>
+    <t>41.449mm</t>
   </si>
   <si>
     <t>U1</t>
@@ -829,22 +826,22 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -864,31 +861,31 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -903,36 +900,36 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
       <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
         <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -947,12 +944,12 @@
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -961,19 +958,19 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>29</v>
@@ -996,31 +993,31 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -1035,36 +1032,36 @@
         <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -1079,36 +1076,36 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
       </c>
       <c r="J11">
         <v>16</v>
@@ -1120,39 +1117,39 @@
         <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
       <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
         <v>80</v>
       </c>
-      <c r="G12" t="s">
-        <v>81</v>
-      </c>
       <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
         <v>80</v>
-      </c>
-      <c r="I12" t="s">
-        <v>81</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1167,7 +1164,7 @@
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/PickAndPlace.xlsx
+++ b/PCB/PickAndPlace.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2024-12-13" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2025-01-12" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
   <si>
     <t>Designator</t>
   </si>
@@ -254,6 +254,75 @@
   </si>
   <si>
     <t>21.801mm</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>BSMD0603-075-6V</t>
+  </si>
+  <si>
+    <t>F0603</t>
+  </si>
+  <si>
+    <t>63.246mm</t>
+  </si>
+  <si>
+    <t>13.97mm</t>
+  </si>
+  <si>
+    <t>63.999mm</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>WNM2020-3/TR-VB</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.3-P0.95-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>69.342mm</t>
+  </si>
+  <si>
+    <t>14.478mm</t>
+  </si>
+  <si>
+    <t>68.342mm</t>
+  </si>
+  <si>
+    <t>13.528mm</t>
+  </si>
+  <si>
+    <t>VSEL</t>
+  </si>
+  <si>
+    <t>SK-3293S</t>
+  </si>
+  <si>
+    <t>SW-SMD_SK-3293S</t>
+  </si>
+  <si>
+    <t>76.631mm</t>
+  </si>
+  <si>
+    <t>16.141mm</t>
+  </si>
+  <si>
+    <t>76.366mm</t>
+  </si>
+  <si>
+    <t>16.411mm</t>
+  </si>
+  <si>
+    <t>76.046mm</t>
+  </si>
+  <si>
+    <t>18.166mm</t>
   </si>
 </sst>
 </file>
@@ -630,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1167,6 +1236,138 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13">
+        <v>180</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14">
+        <v>180</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15">
+        <v>224.442</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PCB/PickAndPlace.xlsx
+++ b/PCB/PickAndPlace.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2025-01-12" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2026-02-13" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="128">
   <si>
     <t>Designator</t>
   </si>
@@ -103,226 +103,298 @@
     <t>15.781mm</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>76.019mm</t>
-  </si>
-  <si>
-    <t>16.68mm</t>
-  </si>
-  <si>
-    <t>75.565mm</t>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>XGS-PB2012UB-02</t>
+  </si>
+  <si>
+    <t>LED0805-RD_BLUE</t>
+  </si>
+  <si>
+    <t>26.924mm</t>
+  </si>
+  <si>
+    <t>25.824mm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0805W8F6800T5E</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>32.131mm</t>
+  </si>
+  <si>
+    <t>31.131mm</t>
+  </si>
+  <si>
+    <t>680Ω</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>Test-Point</t>
+  </si>
+  <si>
+    <t>Test-Point-0.5mm</t>
+  </si>
+  <si>
+    <t>60.618mm</t>
+  </si>
+  <si>
+    <t>17.643mm</t>
+  </si>
+  <si>
+    <t>RN1</t>
+  </si>
+  <si>
+    <t>100R排阻-4D03</t>
+  </si>
+  <si>
+    <t>RES-ARRAY-SMD_8P-L3.2-W1.6-P0.80-BL</t>
+  </si>
+  <si>
+    <t>73.406mm</t>
+  </si>
+  <si>
+    <t>42.799mm</t>
+  </si>
+  <si>
+    <t>74.176mm</t>
+  </si>
+  <si>
+    <t>41.449mm</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RP2040-Tiny</t>
+  </si>
+  <si>
+    <t>COMM-SMD_23P-P2.54-L23.5-W18.0_RP2040-TINY</t>
+  </si>
+  <si>
+    <t>59.817mm</t>
+  </si>
+  <si>
+    <t>32.893mm</t>
+  </si>
+  <si>
+    <t>68.817mm</t>
+  </si>
+  <si>
+    <t>43.848mm</t>
+  </si>
+  <si>
+    <t>LPC</t>
+  </si>
+  <si>
+    <t>Header8PX2</t>
+  </si>
+  <si>
+    <t>HDR-TH_16P-P2.54-V-M-R2-C8-S2.54-W10.5</t>
+  </si>
+  <si>
+    <t>78.74mm</t>
+  </si>
+  <si>
+    <t>34.671mm</t>
+  </si>
+  <si>
+    <t>80.01mm</t>
+  </si>
+  <si>
+    <t>25.781mm</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>79.498mm</t>
+  </si>
+  <si>
+    <t>21.928mm</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>BSMD0603-075-6V</t>
+  </si>
+  <si>
+    <t>F0603</t>
+  </si>
+  <si>
+    <t>57.531mm</t>
+  </si>
+  <si>
+    <t>13.97mm</t>
+  </si>
+  <si>
+    <t>58.284mm</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>VSEL</t>
+  </si>
+  <si>
+    <t>SK-3293S</t>
+  </si>
+  <si>
+    <t>SW-SMD_SK-3293S</t>
+  </si>
+  <si>
+    <t>76.631mm</t>
+  </si>
+  <si>
+    <t>16.141mm</t>
+  </si>
+  <si>
+    <t>76.366mm</t>
+  </si>
+  <si>
+    <t>16.411mm</t>
+  </si>
+  <si>
+    <t>76.046mm</t>
+  </si>
+  <si>
+    <t>18.166mm</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CL05A105KO5NNNC</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>60.579mm</t>
+  </si>
+  <si>
+    <t>14.478mm</t>
+  </si>
+  <si>
+    <t>13.933mm</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>70.231mm</t>
+  </si>
+  <si>
+    <t>14.097mm</t>
+  </si>
+  <si>
+    <t>69.686mm</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100KL</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>62.484mm</t>
+  </si>
+  <si>
+    <t>15.875mm</t>
+  </si>
+  <si>
+    <t>62.051mm</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>RGB_EXP</t>
+  </si>
+  <si>
+    <t>IPCW100W13NWS1R</t>
+  </si>
+  <si>
+    <t>CONN-SMD_3P-P1.00_INCP_IPCW100W13NWS1R</t>
+  </si>
+  <si>
+    <t>64.77mm</t>
+  </si>
+  <si>
+    <t>13.716mm</t>
+  </si>
+  <si>
+    <t>63.77mm</t>
+  </si>
+  <si>
+    <t>15.654mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>TPS22918DBVR</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>65.786mm</t>
+  </si>
+  <si>
+    <t>14.986mm</t>
+  </si>
+  <si>
+    <t>64.436mm</t>
+  </si>
+  <si>
+    <t>14.036mm</t>
+  </si>
+  <si>
+    <t>XBSMB</t>
+  </si>
+  <si>
+    <t>ZX-SH1.0-5PWT</t>
+  </si>
+  <si>
+    <t>CONN-SMD_5P-P1.00_MEGASTAR_ZX-SH1.0-5PWT</t>
+  </si>
+  <si>
+    <t>76.079mm</t>
+  </si>
+  <si>
+    <t>16.755mm</t>
+  </si>
+  <si>
+    <t>75.692mm</t>
   </si>
   <si>
     <t>17.145mm</t>
   </si>
   <si>
-    <t>72.432mm</t>
-  </si>
-  <si>
-    <t>16.709mm</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>XGS-PB2012UB-02</t>
-  </si>
-  <si>
-    <t>LED0805-RD_BLUE</t>
-  </si>
-  <si>
-    <t>26.924mm</t>
-  </si>
-  <si>
-    <t>25.824mm</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>0805W8F6800T5E</t>
-  </si>
-  <si>
-    <t>R0805</t>
-  </si>
-  <si>
-    <t>32.131mm</t>
-  </si>
-  <si>
-    <t>31.131mm</t>
-  </si>
-  <si>
-    <t>680Ω</t>
-  </si>
-  <si>
-    <t>RGB</t>
-  </si>
-  <si>
-    <t>Test-Point</t>
-  </si>
-  <si>
-    <t>Test-Point-0.5mm</t>
-  </si>
-  <si>
-    <t>60.618mm</t>
-  </si>
-  <si>
-    <t>17.643mm</t>
-  </si>
-  <si>
-    <t>RGB_EXP</t>
-  </si>
-  <si>
-    <t>66.421mm</t>
-  </si>
-  <si>
-    <t>63.921mm</t>
-  </si>
-  <si>
-    <t>RN1</t>
-  </si>
-  <si>
-    <t>100R排阻-4D03</t>
-  </si>
-  <si>
-    <t>RES-ARRAY-SMD_8P-L3.2-W1.6-P0.80-BL</t>
-  </si>
-  <si>
-    <t>73.406mm</t>
-  </si>
-  <si>
-    <t>42.799mm</t>
-  </si>
-  <si>
-    <t>74.176mm</t>
-  </si>
-  <si>
-    <t>41.449mm</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>RP2040-Tiny</t>
-  </si>
-  <si>
-    <t>COMM-SMD_23P-P2.54-L23.5-W18.0_RP2040-TINY</t>
-  </si>
-  <si>
-    <t>59.817mm</t>
-  </si>
-  <si>
-    <t>32.893mm</t>
-  </si>
-  <si>
-    <t>68.817mm</t>
-  </si>
-  <si>
-    <t>43.848mm</t>
-  </si>
-  <si>
-    <t>LPC</t>
-  </si>
-  <si>
-    <t>Header8PX2</t>
-  </si>
-  <si>
-    <t>HDR-TH_16P-P2.54-V-M-R2-C8-S2.54-W10.5</t>
-  </si>
-  <si>
-    <t>78.74mm</t>
-  </si>
-  <si>
-    <t>34.671mm</t>
-  </si>
-  <si>
-    <t>80.01mm</t>
-  </si>
-  <si>
-    <t>25.781mm</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>D0</t>
-  </si>
-  <si>
-    <t>80.768mm</t>
-  </si>
-  <si>
-    <t>21.801mm</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>BSMD0603-075-6V</t>
-  </si>
-  <si>
-    <t>F0603</t>
-  </si>
-  <si>
-    <t>63.246mm</t>
-  </si>
-  <si>
-    <t>13.97mm</t>
-  </si>
-  <si>
-    <t>63.999mm</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>WNM2020-3/TR-VB</t>
-  </si>
-  <si>
-    <t>SOT-23-3_L2.9-W1.3-P0.95-LS2.4-BR</t>
-  </si>
-  <si>
-    <t>69.342mm</t>
-  </si>
-  <si>
-    <t>14.478mm</t>
-  </si>
-  <si>
-    <t>68.342mm</t>
-  </si>
-  <si>
-    <t>13.528mm</t>
-  </si>
-  <si>
-    <t>VSEL</t>
-  </si>
-  <si>
-    <t>SK-3293S</t>
-  </si>
-  <si>
-    <t>SW-SMD_SK-3293S</t>
-  </si>
-  <si>
-    <t>76.631mm</t>
-  </si>
-  <si>
-    <t>16.141mm</t>
-  </si>
-  <si>
-    <t>76.366mm</t>
-  </si>
-  <si>
-    <t>16.411mm</t>
-  </si>
-  <si>
-    <t>76.046mm</t>
-  </si>
-  <si>
-    <t>18.166mm</t>
+    <t>73.077mm</t>
+  </si>
+  <si>
+    <t>16.922mm</t>
   </si>
 </sst>
 </file>
@@ -699,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -845,72 +917,72 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
       <c r="J4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
       <c r="L4">
-        <v>45.707</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -925,74 +997,74 @@
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
       <c r="L6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>51</v>
@@ -1001,19 +1073,19 @@
         <v>52</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1021,31 +1093,31 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -1057,39 +1129,39 @@
         <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -1098,42 +1170,42 @@
         <v>90</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -1145,51 +1217,51 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11">
+        <v>180</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
         <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11">
-        <v>90</v>
-      </c>
-      <c r="M11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1197,175 +1269,307 @@
         <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>224.442</v>
       </c>
       <c r="M12" t="s">
         <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L13">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
         <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L14">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M14" t="s">
         <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
         <v>102</v>
       </c>
-      <c r="I15" t="s">
-        <v>103</v>
-      </c>
       <c r="J15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L15">
-        <v>224.442</v>
+        <v>0</v>
       </c>
       <c r="M15" t="s">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>96</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17">
+        <v>180</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>45.244</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
